--- a/biology/Médecine/Laxophobie/Laxophobie.xlsx
+++ b/biology/Médecine/Laxophobie/Laxophobie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La laxophobie est une forme de colopathie correspondant à la peur d’être pris de diarrhées impérieuses en public, en dehors de chez soi, et de ne pas arriver à se retenir le temps de trouver des toilettes.
 C'est une affection extrêmement fréquente.
@@ -513,7 +525,9 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La laxophobie est associée à une colopathie fonctionnelle ou maladie du côlon irritable. La peur d'être bloqué et de ne pas avoir accès à des toilettes provoque des diarrhées impérieuses.
 Elle apparaît le plus souvent dans un contexte de dysfonctionnements digestifs tels que la colopathie fonctionnelle. Les troubles psychologiques le plus souvent associés sont l’anxiété, la dépression et diverses phobies comme la phobie sociale et l’agoraphobie.
@@ -546,9 +560,11 @@
           <t>Incidence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il existe peu d'études françaises sur le sujet. Le pays le plus avancé dans l'étude de la laxophobie est le Japon où la maladie est très présente[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe peu d'études françaises sur le sujet. Le pays le plus avancé dans l'étude de la laxophobie est le Japon où la maladie est très présente.
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les causes et facteurs de cette pathologie sont encore mal connus. Dans de nombreux cas, les débuts de la maladie s'apparentent à une prise de conscience consécutive à un événement traumatisant (diarrhée impérieuse sans possibilité de trouver des toilettes).
 </t>
@@ -608,7 +626,9 @@
           <t>Endoscopie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les patients laxophobes subissent généralement une endoscopie pour vérifier qu'il ne s'agit pas d'une maladie inflammatoire chronique intestinale (MICI) telle que la maladie de Crohn ou la rectocolite hémorragique.
 </t>
@@ -641,15 +661,16 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Traitement symptomatique
-Pansements gastriques (tel que le charbon végétal non activé)
+          <t>Traitement symptomatique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Pansements gastriques (tel que le charbon végétal non activé)
 Analgésique
 Anti-diarrhéique (tel que le lopéramide)
-Probiotiques
-Traitement psychologique
-Antidépresseur
-Anxiolytique
-Prise en charge psychologique</t>
+Probiotiques</t>
         </is>
       </c>
     </row>
@@ -674,10 +695,50 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Traitement</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Traitement psychologique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Antidépresseur
+Anxiolytique
+Prise en charge psychologique</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Laxophobie</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Laxophobie</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Rapport entre la laxophobie et la colopathie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Si la laxophobie est une anticipation (peur d’avoir une diarrhée impérieuse), la colopathie est la faculté d’un individu à influer sur son transit en fonction de son état émotionnel ou moral. Colopathie et laxophobie sont plus ou moins corrélées : on est plus ou moins laxophobe et plus ou moins colopathe. Une personne ayant constamment à l’esprit l’état de son transit, anticipant tout déplacement, allant jusqu’à se limiter fortement dans sa vie sociale mais n’ayant finalement que très rarement des diarrhées est fortement laxophobe et faiblement colopathe.
 Inversement, une personne peu préoccupée par l’éventualité d’être dans une situation difficile, telle que la diarrhée impérieuse sans possibilité de se soulager, mais qui a plusieurs diarrhées par jour, est fortement colopathe et faiblement laxophobe.
